--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H2">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I2">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J2">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>3.264117546118334</v>
+        <v>1.063332001662222</v>
       </c>
       <c r="R2">
-        <v>29.377057915065</v>
+        <v>9.56998801496</v>
       </c>
       <c r="S2">
-        <v>0.08279322668969587</v>
+        <v>0.04645062490188438</v>
       </c>
       <c r="T2">
-        <v>0.109370466068034</v>
+        <v>0.05693503503438702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H3">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I3">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J3">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.4326758988650001</v>
+        <v>0.3521542593199999</v>
       </c>
       <c r="R3">
-        <v>3.894083089785001</v>
+        <v>3.169388333879999</v>
       </c>
       <c r="S3">
-        <v>0.01097467639316418</v>
+        <v>0.01538351651384837</v>
       </c>
       <c r="T3">
-        <v>0.01449762885271872</v>
+        <v>0.01885574313624566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H4">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I4">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J4">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.9857943643333333</v>
+        <v>0.9712205430044445</v>
       </c>
       <c r="R4">
-        <v>8.872149279</v>
+        <v>8.74098488704</v>
       </c>
       <c r="S4">
-        <v>0.02500433735075895</v>
+        <v>0.04242682536553127</v>
       </c>
       <c r="T4">
-        <v>0.03303091495666047</v>
+        <v>0.05200302027554315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H5">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I5">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J5">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>2.937223226921667</v>
+        <v>0.9651487063933333</v>
       </c>
       <c r="R5">
-        <v>17.62333936153</v>
+        <v>5.79089223836</v>
       </c>
       <c r="S5">
-        <v>0.07450166393485315</v>
+        <v>0.04216158308518293</v>
       </c>
       <c r="T5">
-        <v>0.06561150014471759</v>
+        <v>0.03445193995603604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.614468333333334</v>
+        <v>1.314013333333333</v>
       </c>
       <c r="H6">
-        <v>4.843405000000001</v>
+        <v>3.94204</v>
       </c>
       <c r="I6">
-        <v>0.2189358375003605</v>
+        <v>0.2008810138079581</v>
       </c>
       <c r="J6">
-        <v>0.2564101138793465</v>
+        <v>0.2289960686502567</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>1.011720034986111</v>
+        <v>1.246644745742222</v>
       </c>
       <c r="R6">
-        <v>9.105480314875001</v>
+        <v>11.21980271168</v>
       </c>
       <c r="S6">
-        <v>0.02566193313188835</v>
+        <v>0.05445846394151112</v>
       </c>
       <c r="T6">
-        <v>0.03389960385721574</v>
+        <v>0.06675033024804486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.015753</v>
       </c>
       <c r="I7">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J7">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N7">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O7">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P7">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q7">
-        <v>4.728128757874333</v>
+        <v>1.892440127613556</v>
       </c>
       <c r="R7">
-        <v>42.55315882086899</v>
+        <v>17.031961148522</v>
       </c>
       <c r="S7">
-        <v>0.1199273710391581</v>
+        <v>0.08266940746599984</v>
       </c>
       <c r="T7">
-        <v>0.1584249459684266</v>
+        <v>0.1013287898772224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.015753</v>
       </c>
       <c r="I8">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J8">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.803997</v>
       </c>
       <c r="O8">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P8">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q8">
         <v>0.626738262749</v>
@@ -948,10 +948,10 @@
         <v>5.640644364741</v>
       </c>
       <c r="S8">
-        <v>0.0158970019705911</v>
+        <v>0.0273784517997233</v>
       </c>
       <c r="T8">
-        <v>0.0210000574216585</v>
+        <v>0.03355806548775379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.015753</v>
       </c>
       <c r="I9">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J9">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N9">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O9">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P9">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q9">
-        <v>1.427939593933333</v>
+        <v>1.728506924903111</v>
       </c>
       <c r="R9">
-        <v>12.8514563454</v>
+        <v>15.556562324128</v>
       </c>
       <c r="S9">
-        <v>0.03621920008374256</v>
+        <v>0.07550814485360426</v>
       </c>
       <c r="T9">
-        <v>0.04784583174438965</v>
+        <v>0.09255115257765087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>7.015753</v>
       </c>
       <c r="I10">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J10">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N10">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O10">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P10">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q10">
-        <v>4.254616879229666</v>
+        <v>1.717700716462833</v>
       </c>
       <c r="R10">
-        <v>25.527701275378</v>
+        <v>10.306204298777</v>
       </c>
       <c r="S10">
-        <v>0.1079169039665148</v>
+        <v>0.07503608614185077</v>
       </c>
       <c r="T10">
-        <v>0.0950393533009944</v>
+        <v>0.06131503006118146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>7.015753</v>
       </c>
       <c r="I11">
-        <v>0.3171322156108495</v>
+        <v>0.3575132609679819</v>
       </c>
       <c r="J11">
-        <v>0.37141433055451</v>
+        <v>0.4075503687484767</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N11">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O11">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P11">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q11">
-        <v>1.465493360686111</v>
+        <v>2.218686673619556</v>
       </c>
       <c r="R11">
-        <v>13.189440246175</v>
+        <v>19.968180062576</v>
       </c>
       <c r="S11">
-        <v>0.03717173855084285</v>
+        <v>0.0969211707068037</v>
       </c>
       <c r="T11">
-        <v>0.04910414211904081</v>
+        <v>0.1187973307446681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H12">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I12">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J12">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N12">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O12">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P12">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q12">
-        <v>6.536846574036</v>
+        <v>0.2845611566177778</v>
       </c>
       <c r="R12">
-        <v>39.221079444216</v>
+        <v>2.56105040956</v>
       </c>
       <c r="S12">
-        <v>0.1658048806739584</v>
+        <v>0.01243077752483331</v>
       </c>
       <c r="T12">
-        <v>0.1460196508073568</v>
+        <v>0.01523653891365289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H13">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I13">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J13">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.803997</v>
       </c>
       <c r="O13">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P13">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q13">
-        <v>0.8664932948039999</v>
+        <v>0.09424095501999999</v>
       </c>
       <c r="R13">
-        <v>5.198959768823999</v>
+        <v>0.84816859518</v>
       </c>
       <c r="S13">
-        <v>0.02197830646972916</v>
+        <v>0.004116824515002181</v>
       </c>
       <c r="T13">
-        <v>0.01935567049053083</v>
+        <v>0.005046036484701069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H14">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I14">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J14">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N14">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O14">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P14">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q14">
-        <v>1.9741894776</v>
+        <v>0.2599109597155556</v>
       </c>
       <c r="R14">
-        <v>11.8451368656</v>
+        <v>2.33919863744</v>
       </c>
       <c r="S14">
-        <v>0.05007464180991952</v>
+        <v>0.01135395763389351</v>
       </c>
       <c r="T14">
-        <v>0.04409931530161727</v>
+        <v>0.01391666908744749</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H15">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I15">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J15">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N15">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O15">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P15">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q15">
-        <v>5.882195514348</v>
+        <v>0.2582860590766667</v>
       </c>
       <c r="R15">
-        <v>23.528782057392</v>
+        <v>1.54971635446</v>
       </c>
       <c r="S15">
-        <v>0.1491998801426959</v>
+        <v>0.011282975428936</v>
       </c>
       <c r="T15">
-        <v>0.08759739886377467</v>
+        <v>0.00921977695234464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.233196</v>
+        <v>0.3516466666666667</v>
       </c>
       <c r="H16">
-        <v>6.466392</v>
+        <v>1.05494</v>
       </c>
       <c r="I16">
-        <v>0.438449277355176</v>
+        <v>0.05375831211924975</v>
       </c>
       <c r="J16">
-        <v>0.3423311304977583</v>
+        <v>0.06128225808512899</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N16">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O16">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P16">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q16">
-        <v>2.0261092167</v>
+        <v>0.3336179764977777</v>
       </c>
       <c r="R16">
-        <v>12.1566553002</v>
+        <v>3.00256178848</v>
       </c>
       <c r="S16">
-        <v>0.05139156825887296</v>
+        <v>0.01457377701658475</v>
       </c>
       <c r="T16">
-        <v>0.04525909503447863</v>
+        <v>0.0178632366469829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H17">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I17">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J17">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N17">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O17">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P17">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q17">
-        <v>0.3799214861133333</v>
+        <v>1.949674700096</v>
       </c>
       <c r="R17">
-        <v>3.41929337502</v>
+        <v>11.698048200576</v>
       </c>
       <c r="S17">
-        <v>0.009636578732121131</v>
+        <v>0.08516964413116725</v>
       </c>
       <c r="T17">
-        <v>0.01272999192534869</v>
+        <v>0.06959557139388188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H18">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I18">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J18">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.803997</v>
       </c>
       <c r="O18">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P18">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q18">
-        <v>0.05036058542</v>
+        <v>0.6456932066879999</v>
       </c>
       <c r="R18">
-        <v>0.45324526878</v>
+        <v>3.874159240128</v>
       </c>
       <c r="S18">
-        <v>0.001277379048393098</v>
+        <v>0.02820648010092214</v>
       </c>
       <c r="T18">
-        <v>0.001687427190051555</v>
+        <v>0.02304865917498266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H19">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I19">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J19">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N19">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O19">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P19">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q19">
-        <v>0.1147398813333333</v>
+        <v>1.780783535104</v>
       </c>
       <c r="R19">
-        <v>1.032658932</v>
+        <v>10.684701210624</v>
       </c>
       <c r="S19">
-        <v>0.002910337900323605</v>
+        <v>0.07779179775579056</v>
       </c>
       <c r="T19">
-        <v>0.003844577935908265</v>
+        <v>0.06356683381503457</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H20">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I20">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J20">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N20">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O20">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P20">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q20">
-        <v>0.3418731702066667</v>
+        <v>1.769650505904</v>
       </c>
       <c r="R20">
-        <v>2.05123902124</v>
+        <v>7.078602023616</v>
       </c>
       <c r="S20">
-        <v>0.008671496194646969</v>
+        <v>0.07730546219682823</v>
       </c>
       <c r="T20">
-        <v>0.007636740493843296</v>
+        <v>0.04211295286671729</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1879133333333333</v>
+        <v>2.409312</v>
       </c>
       <c r="H21">
-        <v>0.56374</v>
+        <v>4.818624</v>
       </c>
       <c r="I21">
-        <v>0.0254826695336139</v>
+        <v>0.3683258189716586</v>
       </c>
       <c r="J21">
-        <v>0.02984442506838532</v>
+        <v>0.2799174925428902</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N21">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O21">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P21">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q21">
-        <v>0.1177574562777778</v>
+        <v>2.285788179968</v>
       </c>
       <c r="R21">
-        <v>1.0598171065</v>
+        <v>13.714729079808</v>
       </c>
       <c r="S21">
-        <v>0.002986877658129092</v>
+        <v>0.09985243478695044</v>
       </c>
       <c r="T21">
-        <v>0.00394568752323351</v>
+        <v>0.08159347529227377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.383087</v>
+      </c>
+      <c r="I22">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J22">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8092246666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.427674</v>
+      </c>
+      <c r="O22">
+        <v>0.2312345204823145</v>
+      </c>
+      <c r="P22">
+        <v>0.2486288754648592</v>
+      </c>
+      <c r="Q22">
+        <v>0.1033344832931111</v>
+      </c>
+      <c r="R22">
+        <v>0.9300103496380001</v>
+      </c>
+      <c r="S22">
+        <v>0.004514066458429692</v>
+      </c>
+      <c r="T22">
+        <v>0.005532940245714966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.383087</v>
+      </c>
+      <c r="I23">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J23">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.267999</v>
+      </c>
+      <c r="N23">
+        <v>0.803997</v>
+      </c>
+      <c r="O23">
+        <v>0.0765802413191472</v>
+      </c>
+      <c r="P23">
+        <v>0.08234090326259635</v>
+      </c>
+      <c r="Q23">
+        <v>0.034222310971</v>
+      </c>
+      <c r="R23">
+        <v>0.308000798739</v>
+      </c>
+      <c r="S23">
+        <v>0.001494968389651204</v>
+      </c>
+      <c r="T23">
+        <v>0.001832398978913188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.383087</v>
+      </c>
+      <c r="I24">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J24">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7391253333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.217376</v>
+      </c>
+      <c r="O24">
+        <v>0.2112037596847816</v>
+      </c>
+      <c r="P24">
+        <v>0.2270913233666331</v>
+      </c>
+      <c r="Q24">
+        <v>0.09438310219022224</v>
+      </c>
+      <c r="R24">
+        <v>0.8494479197120001</v>
+      </c>
+      <c r="S24">
+        <v>0.004123034075962009</v>
+      </c>
+      <c r="T24">
+        <v>0.005053647610957019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.383087</v>
+      </c>
+      <c r="I25">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J25">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7345045</v>
+      </c>
+      <c r="N25">
+        <v>1.469009</v>
+      </c>
+      <c r="O25">
+        <v>0.2098833647140458</v>
+      </c>
+      <c r="P25">
+        <v>0.150447735452848</v>
+      </c>
+      <c r="Q25">
+        <v>0.09379304179716667</v>
+      </c>
+      <c r="R25">
+        <v>0.562758250783</v>
+      </c>
+      <c r="S25">
+        <v>0.00409725786124785</v>
+      </c>
+      <c r="T25">
+        <v>0.003348035616568574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1276956666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.383087</v>
+      </c>
+      <c r="I26">
+        <v>0.01952159413315168</v>
+      </c>
+      <c r="J26">
+        <v>0.02225381197324759</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9487306666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.846192</v>
+      </c>
+      <c r="O26">
+        <v>0.2710981137997109</v>
+      </c>
+      <c r="P26">
+        <v>0.2914911624530634</v>
+      </c>
+      <c r="Q26">
+        <v>0.1211487949671111</v>
+      </c>
+      <c r="R26">
+        <v>1.090339154704</v>
+      </c>
+      <c r="S26">
+        <v>0.005292267347860923</v>
+      </c>
+      <c r="T26">
+        <v>0.006486789521093841</v>
       </c>
     </row>
   </sheetData>
